--- a/Coefficients.xlsx
+++ b/Coefficients.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\Tally\pipelines\OtherClocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\Tally\Repositories\BuccalComparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F337C-72DB-43E6-9A15-B40CB8D1E368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50F98BB-5053-4287-A6FB-4D618D561277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{C6B674E4-6552-4A8E-9B4F-A442886787E8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="382">
   <si>
     <t>Epi</t>
   </si>
@@ -977,9 +977,6 @@
   </si>
   <si>
     <t>cg13223276</t>
-  </si>
-  <si>
-    <t>ch.20.10785098F</t>
   </si>
   <si>
     <t>cg18316500</t>
@@ -1538,20 +1535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB831640-D93C-49D0-B30E-F841D68CE9A5}">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1565,7 +1565,7 @@
         <v>160</v>
       </c>
       <c r="E2">
-        <v>47.724690000000002</v>
+        <v>47.7246919519025</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,7 +1579,7 @@
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.3647184</v>
+        <v>0.36471844350208299</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1593,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.31714599999999998</v>
+        <v>0.31714604122235601</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1607,7 +1607,7 @@
         <v>162</v>
       </c>
       <c r="E5">
-        <v>-4.965025E-2</v>
+        <v>-4.9650245533642501E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1621,7 +1621,7 @@
         <v>163</v>
       </c>
       <c r="E6">
-        <v>-0.244032</v>
+        <v>-0.24403197579074401</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1635,7 +1635,7 @@
         <v>164</v>
       </c>
       <c r="E7">
-        <v>-0.73141880000000004</v>
+        <v>-0.73141884873157703</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1649,7 +1649,7 @@
         <v>165</v>
       </c>
       <c r="E8">
-        <v>-1.1921710000000001</v>
+        <v>-1.1921707554582399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1663,7 +1663,7 @@
         <v>166</v>
       </c>
       <c r="E9">
-        <v>-1.0187790000000001</v>
+        <v>-1.0187794123409699</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1677,7 +1677,7 @@
         <v>167</v>
       </c>
       <c r="E10">
-        <v>0.46174870000000001</v>
+        <v>0.46174872590942401</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
         <v>168</v>
       </c>
       <c r="E11">
-        <v>-0.82271970000000005</v>
+        <v>-0.82271967847065097</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1705,7 +1705,7 @@
         <v>169</v>
       </c>
       <c r="E12">
-        <v>0.1717265</v>
+        <v>0.17172646358160701</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1719,7 +1719,7 @@
         <v>170</v>
       </c>
       <c r="E13">
-        <v>-1.3442019999999999</v>
+        <v>-1.34420155138761</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1733,7 +1733,7 @@
         <v>171</v>
       </c>
       <c r="E14">
-        <v>0.41685489999999997</v>
+        <v>0.41685491631519</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1747,12 +1747,12 @@
         <v>172</v>
       </c>
       <c r="E15">
-        <v>0.70514089999999996</v>
+        <v>0.70514086748983396</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B16">
         <v>-2.7419824465180001E-2</v>
@@ -1761,7 +1761,7 @@
         <v>173</v>
       </c>
       <c r="E16">
-        <v>-0.27176109999999998</v>
+        <v>-0.27176107976632402</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>174</v>
       </c>
       <c r="E17">
-        <v>-0.6756856</v>
+        <v>-0.67568564160184796</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1789,7 +1789,7 @@
         <v>175</v>
       </c>
       <c r="E18">
-        <v>-1.0090980000000001</v>
+        <v>-1.00909831050715</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1803,7 +1803,7 @@
         <v>176</v>
       </c>
       <c r="E19">
-        <v>-1.015603</v>
+        <v>-1.01560325036513</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1817,7 +1817,7 @@
         <v>177</v>
       </c>
       <c r="E20">
-        <v>-0.2562876</v>
+        <v>-0.25628763962074103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1831,7 +1831,7 @@
         <v>178</v>
       </c>
       <c r="E21">
-        <v>0.77673749999999997</v>
+        <v>0.77673751251749101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1842,10 +1842,10 @@
         <v>0.111397710783276</v>
       </c>
       <c r="D22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E22">
-        <v>0.14385329999999999</v>
+        <v>0.14385326165246301</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1856,10 +1856,10 @@
         <v>8.8039080494679206E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E23">
-        <v>-1.02501</v>
+        <v>-1.0250095994696999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1873,7 +1873,7 @@
         <v>179</v>
       </c>
       <c r="E24">
-        <v>1.229473</v>
+        <v>1.2294734517291701</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1887,7 +1887,7 @@
         <v>180</v>
       </c>
       <c r="E25">
-        <v>-1.680731</v>
+        <v>-1.68073113708448</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1898,10 +1898,10 @@
         <v>-0.10315887972046001</v>
       </c>
       <c r="D26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E26">
-        <v>-8.3501420000000007E-2</v>
+        <v>-8.3501423710177505E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1915,7 +1915,7 @@
         <v>181</v>
       </c>
       <c r="E27">
-        <v>-0.23982919999999999</v>
+        <v>-0.23982920273507199</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1929,7 +1929,7 @@
         <v>182</v>
       </c>
       <c r="E28">
-        <v>0.1168917</v>
+        <v>0.116891680105899</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1943,7 +1943,7 @@
         <v>183</v>
       </c>
       <c r="E29">
-        <v>0.89198900000000003</v>
+        <v>0.89198900277333903</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1954,10 +1954,10 @@
         <v>-5.9690736205026802E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E30">
-        <v>0.76982329999999999</v>
+        <v>0.76982326579795401</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1971,12 +1971,12 @@
         <v>184</v>
       </c>
       <c r="E31">
-        <v>-0.44165539999999998</v>
+        <v>-0.44165538230047702</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B32">
         <v>2.1838987067122902E-2</v>
@@ -1985,7 +1985,7 @@
         <v>185</v>
       </c>
       <c r="E32">
-        <v>4.6668420000000002E-2</v>
+        <v>4.6668422889083301E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1999,7 +1999,7 @@
         <v>186</v>
       </c>
       <c r="E33">
-        <v>-7.7453019999999997E-2</v>
+        <v>-7.7453023453739195E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -2013,12 +2013,12 @@
         <v>187</v>
       </c>
       <c r="E34">
-        <v>0.28830529999999999</v>
+        <v>0.28830533233883698</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B35">
         <v>-5.4821679111994401E-3</v>
@@ -2027,7 +2027,7 @@
         <v>188</v>
       </c>
       <c r="E35">
-        <v>-0.32743359999999999</v>
+        <v>-0.32743356045550098</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2041,12 +2041,12 @@
         <v>189</v>
       </c>
       <c r="E36">
-        <v>-0.24910099999999999</v>
+        <v>-0.24910095122558601</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B37">
         <v>-1.5256152045385701E-2</v>
@@ -2055,7 +2055,7 @@
         <v>190</v>
       </c>
       <c r="E37">
-        <v>0.15771689999999999</v>
+        <v>0.157716949096744</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2069,7 +2069,7 @@
         <v>191</v>
       </c>
       <c r="E38">
-        <v>1.606773</v>
+        <v>1.6067731537479499</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2083,7 +2083,7 @@
         <v>192</v>
       </c>
       <c r="E39">
-        <v>-0.85444929999999997</v>
+        <v>-0.85444926529248899</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2097,7 +2097,7 @@
         <v>193</v>
       </c>
       <c r="E40">
-        <v>-0.1625694</v>
+        <v>-0.162569389636015</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2111,7 +2111,7 @@
         <v>194</v>
       </c>
       <c r="E41">
-        <v>-0.1177199</v>
+        <v>-0.117719942329336</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2125,7 +2125,7 @@
         <v>195</v>
       </c>
       <c r="E42">
-        <v>0.42407089999999997</v>
+        <v>0.42407094462172601</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2139,7 +2139,7 @@
         <v>196</v>
       </c>
       <c r="E43">
-        <v>-0.80084659999999996</v>
+        <v>-0.80084656798828402</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2153,12 +2153,12 @@
         <v>197</v>
       </c>
       <c r="E44">
-        <v>-0.108418</v>
+        <v>-0.108417989194855</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45">
         <v>8.3549351933496808E-3</v>
@@ -2167,7 +2167,7 @@
         <v>198</v>
       </c>
       <c r="E45">
-        <v>-0.63973239999999998</v>
+        <v>-0.63973238835010005</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2181,7 +2181,7 @@
         <v>199</v>
       </c>
       <c r="E46">
-        <v>1.4257139999999999</v>
+        <v>1.4257141432539999</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2195,7 +2195,7 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <v>-0.91931320000000005</v>
+        <v>-0.91931324833479899</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2209,7 +2209,7 @@
         <v>201</v>
       </c>
       <c r="E48">
-        <v>1.3020229999999999</v>
+        <v>1.30202326382222</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2223,7 +2223,7 @@
         <v>202</v>
       </c>
       <c r="E49">
-        <v>-0.31251010000000001</v>
+        <v>-0.312510139327347</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2237,7 +2237,7 @@
         <v>203</v>
       </c>
       <c r="E50">
-        <v>0.37546689999999999</v>
+        <v>0.37546688484278801</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2248,15 +2248,15 @@
         <v>0.102490813251401</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E51">
-        <v>0.34890650000000001</v>
+        <v>0.34890647471892899</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B52">
         <v>-3.9238027708509801E-2</v>
@@ -2265,7 +2265,7 @@
         <v>204</v>
       </c>
       <c r="E52">
-        <v>1.5793539999999998E-2</v>
+        <v>1.5793535829469199E-2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2279,7 +2279,7 @@
         <v>205</v>
       </c>
       <c r="E53">
-        <v>-0.43964199999999998</v>
+        <v>-0.439641984316331</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2293,7 +2293,7 @@
         <v>206</v>
       </c>
       <c r="E54">
-        <v>-3.0315050000000001</v>
+        <v>-3.0315054625689801</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2307,12 +2307,12 @@
         <v>207</v>
       </c>
       <c r="E55">
-        <v>0.45137050000000001</v>
+        <v>0.45137050533822998</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B56">
         <v>3.76129009969524E-2</v>
@@ -2321,7 +2321,7 @@
         <v>51</v>
       </c>
       <c r="E56">
-        <v>-1.908274</v>
+        <v>-1.90827380278404</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2335,7 +2335,7 @@
         <v>208</v>
       </c>
       <c r="E57">
-        <v>-1.552989</v>
+        <v>-1.55298940925708</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2346,10 +2346,10 @@
         <v>-5.2504475969001298E-2</v>
       </c>
       <c r="D58" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E58">
-        <v>0.3749826</v>
+        <v>0.37498263370714702</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2363,7 +2363,7 @@
         <v>209</v>
       </c>
       <c r="E59">
-        <v>0.41683209999999998</v>
+        <v>0.416832068541863</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2374,10 +2374,10 @@
         <v>-0.13384671599515599</v>
       </c>
       <c r="D60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E60">
-        <v>0.1238517</v>
+        <v>0.123851738654321</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2391,7 +2391,7 @@
         <v>210</v>
       </c>
       <c r="E61">
-        <v>0.17317440000000001</v>
+        <v>0.17317443269389199</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2402,10 +2402,10 @@
         <v>9.5759325580142898E-2</v>
       </c>
       <c r="D62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E62">
-        <v>-7.8855880000000003E-2</v>
+        <v>-7.88558783305401E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2419,7 +2419,7 @@
         <v>211</v>
       </c>
       <c r="E63">
-        <v>0.37360409999999999</v>
+        <v>0.37360411216135703</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2433,7 +2433,7 @@
         <v>212</v>
       </c>
       <c r="E64">
-        <v>-0.1297333</v>
+        <v>-0.129733273998166</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2447,7 +2447,7 @@
         <v>213</v>
       </c>
       <c r="E65">
-        <v>-0.65786440000000002</v>
+        <v>-0.65786438132080405</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2461,12 +2461,12 @@
         <v>214</v>
       </c>
       <c r="E66">
-        <v>-0.3232447</v>
+        <v>-0.32324466492891302</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B67">
         <v>-1.3413508358682601E-4</v>
@@ -2475,7 +2475,7 @@
         <v>215</v>
       </c>
       <c r="E67">
-        <v>0.254521</v>
+        <v>0.25452098674508999</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2486,10 +2486,10 @@
         <v>-0.142598724047932</v>
       </c>
       <c r="D68" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E68">
-        <v>8.9668659999999997E-2</v>
+        <v>8.9668655436960995E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2500,10 +2500,10 @@
         <v>0.307141569135014</v>
       </c>
       <c r="D69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E69">
-        <v>-0.36773919999999999</v>
+        <v>-0.36773922066792197</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2517,7 +2517,7 @@
         <v>216</v>
       </c>
       <c r="E70">
-        <v>-0.30716470000000001</v>
+        <v>-0.30716470759283698</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2531,7 +2531,7 @@
         <v>217</v>
       </c>
       <c r="E71">
-        <v>0.28688599999999997</v>
+        <v>0.28688597116147901</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2545,7 +2545,7 @@
         <v>218</v>
       </c>
       <c r="E72">
-        <v>7.1626220000000004E-2</v>
+        <v>7.1626220151063097E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2556,10 +2556,10 @@
         <v>-0.29023869301198202</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E73">
-        <v>0.26699840000000002</v>
+        <v>0.26699844244961801</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2573,7 +2573,7 @@
         <v>219</v>
       </c>
       <c r="E74">
-        <v>-0.19188630000000001</v>
+        <v>-0.191886333725244</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2587,7 +2587,7 @@
         <v>220</v>
       </c>
       <c r="E75">
-        <v>-9.9039009999999997E-2</v>
+        <v>-9.9039006476944094E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2601,7 +2601,7 @@
         <v>221</v>
       </c>
       <c r="E76">
-        <v>1.8426370000000001</v>
+        <v>1.84263652810427</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2612,10 +2612,10 @@
         <v>-9.6389592558870293E-2</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E77">
-        <v>1.092935</v>
+        <v>1.09293467441963</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2626,15 +2626,15 @@
         <v>0.19401018600718001</v>
       </c>
       <c r="D78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E78">
-        <v>0.29902590000000001</v>
+        <v>0.29902593255801502</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79">
         <v>-4.1221664670006101E-3</v>
@@ -2643,7 +2643,7 @@
         <v>222</v>
       </c>
       <c r="E79">
-        <v>-0.32851390000000003</v>
+        <v>-0.32851385051919602</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2657,7 +2657,7 @@
         <v>223</v>
       </c>
       <c r="E80">
-        <v>-0.75949429999999996</v>
+        <v>-0.75949431629415998</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2671,7 +2671,7 @@
         <v>224</v>
       </c>
       <c r="E81">
-        <v>-0.72903850000000003</v>
+        <v>-0.72903850760309297</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2685,7 +2685,7 @@
         <v>225</v>
       </c>
       <c r="E82">
-        <v>0.30058790000000002</v>
+        <v>0.30058793583253801</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2699,7 +2699,7 @@
         <v>226</v>
       </c>
       <c r="E83">
-        <v>-2.914167</v>
+        <v>-2.9141671624195098</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2713,21 +2713,21 @@
         <v>227</v>
       </c>
       <c r="E84">
-        <v>0.26631650000000001</v>
+        <v>0.26631645103780899</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B85">
         <v>5.5750537418840897E-3</v>
       </c>
       <c r="D85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E85">
-        <v>0.51718819999999999</v>
+        <v>0.517188238217968</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2738,10 +2738,10 @@
         <v>-8.2016897905379402E-2</v>
       </c>
       <c r="D86" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E86">
-        <v>0.24380170000000001</v>
+        <v>0.243801739902584</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2755,7 +2755,7 @@
         <v>228</v>
       </c>
       <c r="E87">
-        <v>-0.301672</v>
+        <v>-0.30167202131048798</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2769,7 +2769,7 @@
         <v>229</v>
       </c>
       <c r="E88">
-        <v>0.22988639999999999</v>
+        <v>0.22988640478873601</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2780,15 +2780,15 @@
         <v>0.47173150558205301</v>
       </c>
       <c r="D89" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E89">
-        <v>-0.5040133</v>
+        <v>-0.50401330632852903</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B90">
         <v>5.6704348390931797E-3</v>
@@ -2797,7 +2797,7 @@
         <v>230</v>
       </c>
       <c r="E90">
-        <v>-0.61116610000000005</v>
+        <v>-0.61116605058576601</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2811,7 +2811,7 @@
         <v>231</v>
       </c>
       <c r="E91">
-        <v>0.43469210000000003</v>
+        <v>0.434692063295398</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2825,7 +2825,7 @@
         <v>232</v>
       </c>
       <c r="E92">
-        <v>-1.8872860000000002E-2</v>
+        <v>-1.8872855319434601E-2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2836,10 +2836,10 @@
         <v>0.22248552979852601</v>
       </c>
       <c r="D93" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E93">
-        <v>-0.36492409999999997</v>
+        <v>-0.36492409894599498</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2853,21 +2853,21 @@
         <v>233</v>
       </c>
       <c r="E94">
-        <v>0.29529080000000002</v>
+        <v>0.29529084162233599</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B95">
         <v>4.4198849831583002E-2</v>
       </c>
       <c r="D95" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95">
-        <v>-0.87644160000000004</v>
+        <v>-0.87644158747914402</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2881,7 +2881,7 @@
         <v>234</v>
       </c>
       <c r="E96">
-        <v>-0.34159129999999999</v>
+        <v>-0.34159127834696801</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2895,7 +2895,7 @@
         <v>235</v>
       </c>
       <c r="E97">
-        <v>-0.65037590000000001</v>
+        <v>-0.65037594553191802</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2909,7 +2909,7 @@
         <v>236</v>
       </c>
       <c r="E98">
-        <v>-2.6444169999999999E-2</v>
+        <v>-2.64441670936835E-2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2920,10 +2920,10 @@
         <v>-8.31808052234769E-2</v>
       </c>
       <c r="D99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E99">
-        <v>-1.0374810000000001</v>
+        <v>-1.0374807253653699</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2937,12 +2937,12 @@
         <v>237</v>
       </c>
       <c r="E100">
-        <v>0.2268839</v>
+        <v>0.22688386651571099</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B101">
         <v>-2.5189606236184999E-4</v>
@@ -2951,7 +2951,7 @@
         <v>238</v>
       </c>
       <c r="E101">
-        <v>0.63033939999999999</v>
+        <v>0.63033941286520501</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2965,7 +2965,7 @@
         <v>239</v>
       </c>
       <c r="E102">
-        <v>1.033166</v>
+        <v>1.0331661977686399</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2979,7 +2979,7 @@
         <v>240</v>
       </c>
       <c r="E103">
-        <v>1.0881590000000001</v>
+        <v>1.08815941836143</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2993,7 +2993,7 @@
         <v>241</v>
       </c>
       <c r="E104">
-        <v>0.55458269999999998</v>
+        <v>0.55458267391824101</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -3007,7 +3007,7 @@
         <v>242</v>
       </c>
       <c r="E105">
-        <v>-0.4925718</v>
+        <v>-0.49257184074788002</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -3021,7 +3021,7 @@
         <v>243</v>
       </c>
       <c r="E106">
-        <v>0.65374299999999996</v>
+        <v>0.65374300700576204</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -3032,10 +3032,10 @@
         <v>1.2102052632149101</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E107">
-        <v>0.77232149999999999</v>
+        <v>0.77232146097890897</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
         <v>244</v>
       </c>
       <c r="E108">
-        <v>0.98493699999999995</v>
+        <v>0.98493697743775799</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3063,12 +3063,12 @@
         <v>11</v>
       </c>
       <c r="E109">
-        <v>2.2070889999999999</v>
+        <v>2.2070888768416799</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B110">
         <v>-3.6669871297907303E-2</v>
@@ -3077,7 +3077,7 @@
         <v>245</v>
       </c>
       <c r="E110">
-        <v>0.25884360000000001</v>
+        <v>0.25884359454158101</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3091,7 +3091,7 @@
         <v>246</v>
       </c>
       <c r="E111">
-        <v>0.11154989999999999</v>
+        <v>0.11154989352903601</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3105,7 +3105,7 @@
         <v>247</v>
       </c>
       <c r="E112">
-        <v>0.84311409999999998</v>
+        <v>0.84311409949419003</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3119,7 +3119,7 @@
         <v>248</v>
       </c>
       <c r="E113">
-        <v>-0.23154140000000001</v>
+        <v>-0.23154136225317101</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3133,7 +3133,7 @@
         <v>249</v>
       </c>
       <c r="E114">
-        <v>7.0435230000000003E-3</v>
+        <v>7.0435225725009702E-3</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3144,10 +3144,10 @@
         <v>0.15793882916649399</v>
       </c>
       <c r="D115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E115">
-        <v>-0.98880500000000005</v>
+        <v>-0.98880503651138896</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3158,10 +3158,10 @@
         <v>-0.26857169316635598</v>
       </c>
       <c r="D116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E116">
-        <v>8.9470729999999998E-2</v>
+        <v>8.9470727023684707E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3172,10 +3172,10 @@
         <v>-0.22912271331056999</v>
       </c>
       <c r="D117" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E117">
-        <v>-0.71482369999999995</v>
+        <v>-0.71482366147527698</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3189,12 +3189,12 @@
         <v>250</v>
       </c>
       <c r="E118">
-        <v>0.76873840000000004</v>
+        <v>0.76873837108144805</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B119">
         <v>-1.57394906955566E-2</v>
@@ -3203,7 +3203,7 @@
         <v>251</v>
       </c>
       <c r="E119">
-        <v>-0.1105044</v>
+        <v>-0.110504369512096</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3217,7 +3217,7 @@
         <v>252</v>
       </c>
       <c r="E120">
-        <v>1.1336930000000001</v>
+        <v>1.13369333463247</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3231,7 +3231,7 @@
         <v>253</v>
       </c>
       <c r="E121">
-        <v>-1.5271810000000001E-3</v>
+        <v>-1.52718076299819E-3</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -3245,7 +3245,7 @@
         <v>254</v>
       </c>
       <c r="E122">
-        <v>-1.8378399999999999</v>
+        <v>-1.8378400069574901</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3256,15 +3256,15 @@
         <v>0.203865360504109</v>
       </c>
       <c r="D123" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E123">
-        <v>0.91970759999999996</v>
+        <v>0.91970755718689001</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B124">
         <v>8.3265712885965699E-3</v>
@@ -3273,7 +3273,7 @@
         <v>255</v>
       </c>
       <c r="E124">
-        <v>0.75789819999999997</v>
+        <v>0.75789820321089396</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3284,10 +3284,10 @@
         <v>-0.25449834857731701</v>
       </c>
       <c r="D125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E125">
-        <v>-0.1370787</v>
+        <v>-0.13707869953902399</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3301,7 +3301,7 @@
         <v>256</v>
       </c>
       <c r="E126">
-        <v>-0.39943010000000001</v>
+        <v>-0.39943013112195302</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3315,7 +3315,7 @@
         <v>257</v>
       </c>
       <c r="E127">
-        <v>-0.43669210000000003</v>
+        <v>-0.43669213962695103</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3326,10 +3326,10 @@
         <v>1.3370857302395499E-2</v>
       </c>
       <c r="D128" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E128">
-        <v>0.17607159999999999</v>
+        <v>0.176071593200057</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3340,10 +3340,10 @@
         <v>2.17410631728468</v>
       </c>
       <c r="D129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E129">
-        <v>1.389456</v>
+        <v>1.38945634384818</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3354,10 +3354,10 @@
         <v>0.11815102474181501</v>
       </c>
       <c r="D130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E130">
-        <v>-0.79379529999999998</v>
+        <v>-0.79379529047925601</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3368,10 +3368,10 @@
         <v>0.23397175813082999</v>
       </c>
       <c r="D131" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E131">
-        <v>-5.6179760000000002E-2</v>
+        <v>-5.6179760068760999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3382,10 +3382,10 @@
         <v>-0.50885061039621005</v>
       </c>
       <c r="D132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E132">
-        <v>-1.604419</v>
+        <v>-1.60441908887347</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>-69.977279999999993</v>
+        <v>-69.9772812923743</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3410,24 +3410,24 @@
         <v>-3.5640038889541599E-2</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E134">
-        <v>-1.4651289999999999</v>
+        <v>-1.46512869263666</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B135">
         <v>1.74367529604239E-2</v>
       </c>
       <c r="D135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E135">
-        <v>-0.99671069999999995</v>
+        <v>-0.99671074632192402</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -3438,10 +3438,10 @@
         <v>0.160128116723248</v>
       </c>
       <c r="D136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E136">
-        <v>-3.9389210000000001</v>
+        <v>-3.9389206342261298</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
@@ -3452,38 +3452,38 @@
         <v>-0.155723594445138</v>
       </c>
       <c r="D137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E137">
-        <v>-3.086042</v>
+        <v>-3.08604162006983</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B138">
         <v>4.9970949949978E-2</v>
       </c>
       <c r="D138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E138">
-        <v>-0.64857670000000001</v>
+        <v>-0.64857666673884895</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B139">
         <v>-3.0179975292186402E-4</v>
       </c>
       <c r="D139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E139">
-        <v>-4.0707009999999997</v>
+        <v>-4.07070127236386</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3494,15 +3494,15 @@
         <v>-5.06527982350721E-2</v>
       </c>
       <c r="D140" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E140">
-        <v>-61.151009999999999</v>
+        <v>-61.151010523846601</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B141">
         <v>-2.8034861298344298E-2</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B148">
         <v>6.3956799277115296E-3</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B151">
         <v>-2.20882741162973E-4</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B166">
         <v>-4.0812831219232598E-2</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B171">
         <v>-0.14351723206709599</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B176">
         <v>-2.3442705464341101E-3</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B186">
         <v>7.4807819786364598E-3</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B196">
         <v>-2.4490095285799201E-3</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B197">
         <v>-1.6678136239092901E-3</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B199">
         <v>-8.5858323988182805E-4</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B202">
         <v>8.3324587485025699E-3</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227">
         <v>-2.5742421926503501E-3</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B246">
         <v>-0.397968358342703</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B247">
         <v>-1.4506803119572399E-2</v>
@@ -4358,34 +4358,10 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B248">
         <v>-0.144418211808202</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>302</v>
-      </c>
-      <c r="B249">
-        <v>-3.7961575632323302E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>311</v>
-      </c>
-      <c r="B250">
-        <v>2.9243490922030099E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>313</v>
-      </c>
-      <c r="B251">
-        <v>2.3201052476180602E-2</v>
       </c>
     </row>
   </sheetData>
